--- a/ECFP4 Fingerprint/top_similarities_morgan_dice.xlsx
+++ b/ECFP4 Fingerprint/top_similarities_morgan_dice.xlsx
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[(0.34782608695652173, 6811), (0.3333333333333333, 68154), (0.3333333333333333, 442187), (0.3333333333333333, 660), (0.32142857142857145, 5570)]</t>
+          <t>[(0.34782608695652173, 6811), (0.3333333333333333, 68154), (0.3333333333333333, 660), (0.32142857142857145, 5570), (0.3137254901960784, 10329)]</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[(0.4482758620689655, 10772), (0.375, 4680), (0.375, 79730), (0.36619718309859156, 44453629), (0.36619718309859156, 155173)]</t>
+          <t>[(0.4482758620689655, 10772), (0.375, 4680), (0.375, 79730), (0.35294117647058826, 13879), (0.35294117647058826, 6985)]</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[(0.6842105263157895, 1017), (0.6190476190476191, 338), (0.5531914893617021, 62341), (0.5333333333333333, 6781), (0.5217391304347826, 4133)]</t>
+          <t>[(0.6842105263157895, 1017), (0.6190476190476191, 338), (0.5531914893617021, 62341), (0.5217391304347826, 4133), (0.46808510638297873, 75316)]</t>
         </is>
       </c>
     </row>
